--- a/DataSets/Таблица_К_имен_и_норм.xlsx
+++ b/DataSets/Таблица_К_имен_и_норм.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shevn\Desktop\KnowledgeExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shevchenko.NE\Desktop\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2824F2-2028-4C53-99C0-A0065483022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFB3EA-61F8-471C-B601-A22DCA953EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="588" yWindow="864" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="870" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -540,17 +540,17 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -570,37 +570,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -609,7 +609,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -618,7 +618,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -629,12 +629,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -643,43 +643,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>

--- a/DataSets/Таблица_К_имен_и_норм.xlsx
+++ b/DataSets/Таблица_К_имен_и_норм.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shevchenko.NE\Desktop\KnowledgeExtractor\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFB3EA-61F8-471C-B601-A22DCA953EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A1080-F59F-45B9-8ED3-E8E6528EDDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="870" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>название</t>
-  </si>
-  <si>
     <t>Норма (если есть)</t>
   </si>
   <si>
@@ -39,15 +36,9 @@
     <t>нет</t>
   </si>
   <si>
-    <t>Чувствит-ть при пальп</t>
-  </si>
-  <si>
     <t>безболезненный</t>
   </si>
   <si>
-    <t>Чувствит-ть.Локализ</t>
-  </si>
-  <si>
     <t>БольЖив.Интенсив</t>
   </si>
   <si>
@@ -66,12 +57,6 @@
     <t>Локализация</t>
   </si>
   <si>
-    <t>БольЖив.Локал</t>
-  </si>
-  <si>
-    <t>Влажн-ть языка</t>
-  </si>
-  <si>
     <t>Налет на языке</t>
   </si>
   <si>
@@ -79,6 +64,21 @@
   </si>
   <si>
     <t>БольЖив.Характ</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Боль жив. локал.</t>
+  </si>
+  <si>
+    <t>Влажность языка</t>
+  </si>
+  <si>
+    <t>Чувствительность при пальп</t>
+  </si>
+  <si>
+    <t>Чувствительность.Локализ</t>
   </si>
 </sst>
 </file>
@@ -543,145 +543,145 @@
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>

--- a/DataSets/Таблица_К_имен_и_норм.xlsx
+++ b/DataSets/Таблица_К_имен_и_норм.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A1080-F59F-45B9-8ED3-E8E6528EDDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF254DA-56FB-45DF-801C-4621EB7C40EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15660" yWindow="4740" windowWidth="16830" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,23 +69,23 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Боль жив. локал.</t>
-  </si>
-  <si>
-    <t>Влажность языка</t>
-  </si>
-  <si>
-    <t>Чувствительность при пальп</t>
-  </si>
-  <si>
-    <t>Чувствительность.Локализ</t>
+    <t>БольЖив.Локализ</t>
+  </si>
+  <si>
+    <t>ВлажностьЯзыка</t>
+  </si>
+  <si>
+    <t>Чувствит-ть при пальп</t>
+  </si>
+  <si>
+    <t>Чувствит-ть.Локализ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +122,27 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -219,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,6 +269,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,17 +566,17 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -561,8 +587,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="10"/>
@@ -570,38 +596,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:3" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:3" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:3" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -609,7 +635,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -618,8 +644,8 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -629,13 +655,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="12"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="10"/>
@@ -643,43 +669,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
